--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3843716666666667</v>
+        <v>0.6276753333333334</v>
       </c>
       <c r="H2">
-        <v>1.153115</v>
+        <v>1.883026</v>
       </c>
       <c r="I2">
-        <v>0.009283037010184481</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="J2">
-        <v>0.009283037010184483</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.254050666666667</v>
+        <v>0.140567</v>
       </c>
       <c r="N2">
-        <v>6.762152</v>
+        <v>0.421701</v>
       </c>
       <c r="O2">
-        <v>0.5759961839619929</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="P2">
-        <v>0.575996183961993</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="Q2">
-        <v>0.8663932114977779</v>
+        <v>0.08823043858066668</v>
       </c>
       <c r="R2">
-        <v>7.797538903480001</v>
+        <v>0.794073947226</v>
       </c>
       <c r="S2">
-        <v>0.005346993893444209</v>
+        <v>0.001177016293556994</v>
       </c>
       <c r="T2">
-        <v>0.005346993893444211</v>
+        <v>0.001177016293556994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3843716666666667</v>
+        <v>0.6276753333333334</v>
       </c>
       <c r="H3">
-        <v>1.153115</v>
+        <v>1.883026</v>
       </c>
       <c r="I3">
-        <v>0.009283037010184481</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="J3">
-        <v>0.009283037010184483</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.161141</v>
       </c>
       <c r="O3">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="P3">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="Q3">
-        <v>0.02064601157944445</v>
+        <v>0.03371474362955556</v>
       </c>
       <c r="R3">
-        <v>0.185814104215</v>
+        <v>0.303432692666</v>
       </c>
       <c r="S3">
-        <v>0.0001274180087912093</v>
+        <v>0.0004497631795041215</v>
       </c>
       <c r="T3">
-        <v>0.0001274180087912093</v>
+        <v>0.0004497631795041215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3843716666666667</v>
+        <v>0.6276753333333334</v>
       </c>
       <c r="H4">
-        <v>1.153115</v>
+        <v>1.883026</v>
       </c>
       <c r="I4">
-        <v>0.009283037010184481</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="J4">
-        <v>0.009283037010184483</v>
+        <v>0.01507055680360577</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.816632</v>
       </c>
       <c r="O4">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="P4">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="Q4">
-        <v>0.6171256231866667</v>
+        <v>1.007760365381333</v>
       </c>
       <c r="R4">
-        <v>5.55413060868</v>
+        <v>9.069843288432001</v>
       </c>
       <c r="S4">
-        <v>0.003808625107949062</v>
+        <v>0.01344377733054465</v>
       </c>
       <c r="T4">
-        <v>0.003808625107949063</v>
+        <v>0.01344377733054465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>79.91645</v>
       </c>
       <c r="I5">
-        <v>0.6433593900630531</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="J5">
-        <v>0.6433593900630532</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.254050666666667</v>
+        <v>0.140567</v>
       </c>
       <c r="N5">
-        <v>6.762152</v>
+        <v>0.421701</v>
       </c>
       <c r="O5">
-        <v>0.5759961839619929</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="P5">
-        <v>0.575996183961993</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="Q5">
-        <v>60.04524246671111</v>
+        <v>3.744538542383333</v>
       </c>
       <c r="R5">
-        <v>540.4071822004</v>
+        <v>33.70084688145</v>
       </c>
       <c r="S5">
-        <v>0.3705725535924339</v>
+        <v>0.04995308815344707</v>
       </c>
       <c r="T5">
-        <v>0.370572553592434</v>
+        <v>0.04995308815344707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>79.91645</v>
       </c>
       <c r="I6">
-        <v>0.6433593900630531</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="J6">
-        <v>0.6433593900630532</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.161141</v>
       </c>
       <c r="O6">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="P6">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="Q6">
         <v>1.430868518827778</v>
@@ -818,10 +818,10 @@
         <v>12.87781666945</v>
       </c>
       <c r="S6">
-        <v>0.00883068464867965</v>
+        <v>0.01908814676307292</v>
       </c>
       <c r="T6">
-        <v>0.008830684648679652</v>
+        <v>0.01908814676307292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>79.91645</v>
       </c>
       <c r="I7">
-        <v>0.6433593900630531</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="J7">
-        <v>0.6433593900630532</v>
+        <v>0.6396010460118555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.816632</v>
       </c>
       <c r="O7">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="P7">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="Q7">
         <v>42.76979226626667</v>
@@ -880,10 +880,10 @@
         <v>384.9281303964</v>
       </c>
       <c r="S7">
-        <v>0.2639561518219395</v>
+        <v>0.5705598110953355</v>
       </c>
       <c r="T7">
-        <v>0.2639561518219396</v>
+        <v>0.5705598110953355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.147865</v>
       </c>
       <c r="I8">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845387</v>
       </c>
       <c r="J8">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845388</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.254050666666667</v>
+        <v>0.140567</v>
       </c>
       <c r="N8">
-        <v>6.762152</v>
+        <v>0.421701</v>
       </c>
       <c r="O8">
-        <v>0.5759961839619929</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="P8">
-        <v>0.575996183961993</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="Q8">
-        <v>32.41915795616444</v>
+        <v>2.021721979818333</v>
       </c>
       <c r="R8">
-        <v>291.77242160548</v>
+        <v>18.195497818365</v>
       </c>
       <c r="S8">
-        <v>0.2000766364761148</v>
+        <v>0.02697028088682659</v>
       </c>
       <c r="T8">
-        <v>0.2000766364761148</v>
+        <v>0.0269702808868266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.147865</v>
       </c>
       <c r="I9">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845387</v>
       </c>
       <c r="J9">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845388</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.161141</v>
       </c>
       <c r="O9">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="P9">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="Q9">
-        <v>0.7725433459961111</v>
+        <v>0.7725433459961112</v>
       </c>
       <c r="R9">
-        <v>6.952890113964999</v>
+        <v>6.952890113965001</v>
       </c>
       <c r="S9">
-        <v>0.0047677942285825</v>
+        <v>0.01030592299374231</v>
       </c>
       <c r="T9">
-        <v>0.004767794228582501</v>
+        <v>0.01030592299374231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.147865</v>
       </c>
       <c r="I10">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845387</v>
       </c>
       <c r="J10">
-        <v>0.3473575729267623</v>
+        <v>0.3453283971845388</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.816632</v>
       </c>
       <c r="O10">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="P10">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="Q10">
         <v>23.09193192118667</v>
@@ -1066,10 +1066,10 @@
         <v>207.82738729068</v>
       </c>
       <c r="S10">
-        <v>0.142513142222065</v>
+        <v>0.3080521933039698</v>
       </c>
       <c r="T10">
-        <v>0.1425131422220651</v>
+        <v>0.3080521933039698</v>
       </c>
     </row>
   </sheetData>
